--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/107.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/107.xlsx
@@ -479,13 +479,13 @@
         <v>-11.66472361706668</v>
       </c>
       <c r="E2" t="n">
-        <v>-20.8643649520051</v>
+        <v>-20.8261964753951</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.426289482140935</v>
+        <v>-3.337016216751068</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.738332335236299</v>
+        <v>-8.685902625595503</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-11.19906601912852</v>
       </c>
       <c r="E3" t="n">
-        <v>-21.25917670154282</v>
+        <v>-21.22178068801779</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.774494329216351</v>
+        <v>-3.703305500227203</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.729434342738514</v>
+        <v>-8.689153815162003</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-10.64697767888049</v>
       </c>
       <c r="E4" t="n">
-        <v>-21.85702401725665</v>
+        <v>-21.83524838067141</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.46320637299301</v>
+        <v>-3.400348411705084</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.374590224337828</v>
+        <v>-8.344654835291708</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-10.04983576108355</v>
       </c>
       <c r="E5" t="n">
-        <v>-22.01930971119702</v>
+        <v>-22.01680653968116</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.199669346838826</v>
+        <v>-3.132704619782692</v>
       </c>
       <c r="G5" t="n">
-        <v>-8.171725773402059</v>
+        <v>-8.157044085780713</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-9.39824145531002</v>
       </c>
       <c r="E6" t="n">
-        <v>-22.40499857392108</v>
+        <v>-22.40951601626611</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.182323150475012</v>
+        <v>-3.120799888061754</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.477134789805718</v>
+        <v>-7.457300088946644</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-8.693018476357906</v>
       </c>
       <c r="E7" t="n">
-        <v>-22.85682592154075</v>
+        <v>-22.88873158035424</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.257858306568848</v>
+        <v>-3.216448418406078</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.449744219771611</v>
+        <v>-6.451616709401638</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-7.937040171546437</v>
       </c>
       <c r="E8" t="n">
-        <v>-23.36595731864754</v>
+        <v>-23.3913801543555</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.079526892091258</v>
+        <v>-3.01226882462311</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.943433779627031</v>
+        <v>-5.945267157202125</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-7.129080467724855</v>
       </c>
       <c r="E9" t="n">
-        <v>-23.55244848558601</v>
+        <v>-23.57940646945018</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.930397515629751</v>
+        <v>-2.861887862403672</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.169430657491391</v>
+        <v>-5.216247787248968</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-6.281650592503487</v>
       </c>
       <c r="E10" t="n">
-        <v>-24.00550297392929</v>
+        <v>-24.02710260626732</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.224808620148503</v>
+        <v>-3.147474309527642</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.138026212819546</v>
+        <v>-4.204399370044784</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-5.400963554119773</v>
       </c>
       <c r="E11" t="n">
-        <v>-24.43147725323672</v>
+        <v>-24.47547342603209</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.292604478372013</v>
+        <v>-3.212033645205254</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.155800288221998</v>
+        <v>-3.2188538097846</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-4.514266197796265</v>
       </c>
       <c r="E12" t="n">
-        <v>-24.88411617599631</v>
+        <v>-24.93625743423195</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.055487645326638</v>
+        <v>-2.980720063310907</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.274449242309507</v>
+        <v>-2.33541026893307</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-3.643681200108499</v>
       </c>
       <c r="E13" t="n">
-        <v>-25.57570530937636</v>
+        <v>-25.6485955127552</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.081252711515279</v>
+        <v>-2.982832114277414</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.012716259689215</v>
+        <v>-2.092055063125511</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-2.834590673489514</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.96026481151416</v>
+        <v>-26.05181635410401</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.743471227080125</v>
+        <v>-2.612812518561824</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.074975408573727</v>
+        <v>-1.153087071286427</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-2.129223648644094</v>
       </c>
       <c r="E15" t="n">
-        <v>-26.68512852563044</v>
+        <v>-26.76865231894481</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.631879645342792</v>
+        <v>-2.516176408830383</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.1488068367122258</v>
+        <v>-0.2230855180412646</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-1.577430102164641</v>
       </c>
       <c r="E16" t="n">
-        <v>-27.24810255536256</v>
+        <v>-27.32628755317826</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.475612318855589</v>
+        <v>-2.359121952237607</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3040129793014367</v>
+        <v>0.1983713189211385</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-1.219775591121421</v>
       </c>
       <c r="E17" t="n">
-        <v>-28.28161905100091</v>
+        <v>-28.38071677568984</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.512421651556592</v>
+        <v>-2.398938024161762</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7057817856107733</v>
+        <v>0.6072389632012356</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-1.083497005623656</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.8977585859073</v>
+        <v>-28.98230418165686</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.517266657361705</v>
+        <v>-2.402731893490488</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9886010548480693</v>
+        <v>0.8668354498206856</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-1.181722340119803</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.39483124757685</v>
+        <v>-29.49668637213872</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.505073474235619</v>
+        <v>-2.373153401945653</v>
       </c>
       <c r="G19" t="n">
-        <v>1.427609426462697</v>
+        <v>1.33307558968403</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-1.505670344657821</v>
       </c>
       <c r="E20" t="n">
-        <v>-30.19496366691271</v>
+        <v>-30.29385849781667</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.246401009914016</v>
+        <v>-2.138265956031591</v>
       </c>
       <c r="G20" t="n">
-        <v>1.433168227270379</v>
+        <v>1.3804109541695</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-2.034658777868693</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.98791657966451</v>
+        <v>-31.08978637124699</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.081651256512716</v>
+        <v>-1.964535097015768</v>
       </c>
       <c r="G21" t="n">
-        <v>1.14043405210698</v>
+        <v>1.106924799041145</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-2.726490504493209</v>
       </c>
       <c r="E22" t="n">
-        <v>-31.41724960668952</v>
+        <v>-31.52349505941788</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.043194328497563</v>
+        <v>-1.9106826863767</v>
       </c>
       <c r="G22" t="n">
-        <v>1.191670844072249</v>
+        <v>1.161877236225269</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-3.532677401772</v>
       </c>
       <c r="E23" t="n">
-        <v>-32.07853912001187</v>
+        <v>-32.16052043165973</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.884986066284195</v>
+        <v>-1.770744642824994</v>
       </c>
       <c r="G23" t="n">
-        <v>1.421796397297935</v>
+        <v>1.405349778197633</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-4.391849059379986</v>
       </c>
       <c r="E24" t="n">
-        <v>-32.51107689103813</v>
+        <v>-32.61797258167979</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.778254157372575</v>
+        <v>-1.65541297083447</v>
       </c>
       <c r="G24" t="n">
-        <v>1.241323597812637</v>
+        <v>1.242159617986879</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-5.242976023056312</v>
       </c>
       <c r="E25" t="n">
-        <v>-33.04823940901638</v>
+        <v>-33.13841225166976</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.612863944071709</v>
+        <v>-1.496994481325825</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9594674629281231</v>
+        <v>0.9890606214935592</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-6.022823706067316</v>
       </c>
       <c r="E26" t="n">
-        <v>-32.77187851785028</v>
+        <v>-32.86899619475811</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.642153984211397</v>
+        <v>-1.52780989160799</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9265155566451163</v>
+        <v>0.9747162753460308</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-6.675681350829445</v>
       </c>
       <c r="E27" t="n">
-        <v>-33.30760122330621</v>
+        <v>-33.3998714499055</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.408850576522215</v>
+        <v>-1.298838144002895</v>
       </c>
       <c r="G27" t="n">
-        <v>1.148188016997907</v>
+        <v>1.20738900114938</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-7.155672310468349</v>
       </c>
       <c r="E28" t="n">
-        <v>-33.026395326335</v>
+        <v>-33.09884307459238</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.316169673346109</v>
+        <v>-1.200261098545289</v>
       </c>
       <c r="G28" t="n">
-        <v>1.014947912853874</v>
+        <v>1.0541919709746</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-7.430693510037183</v>
       </c>
       <c r="E29" t="n">
-        <v>-33.3441172155952</v>
+        <v>-33.40124037182824</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.28875212283645</v>
+        <v>-1.192487577626894</v>
       </c>
       <c r="G29" t="n">
-        <v>1.614442823881852</v>
+        <v>1.674196265809286</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-7.482538789132952</v>
       </c>
       <c r="E30" t="n">
-        <v>-33.55195867552149</v>
+        <v>-33.60089763425931</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.258098049780893</v>
+        <v>-1.141343676792097</v>
       </c>
       <c r="G30" t="n">
-        <v>1.793121357846992</v>
+        <v>1.83318676912136</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-7.310028719291754</v>
       </c>
       <c r="E31" t="n">
-        <v>-33.2147443158829</v>
+        <v>-33.25128964221309</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.513465545460461</v>
+        <v>-1.372491032452969</v>
       </c>
       <c r="G31" t="n">
-        <v>2.369139257900045</v>
+        <v>2.393926522715303</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-6.928489309106925</v>
       </c>
       <c r="E32" t="n">
-        <v>-33.09858640173186</v>
+        <v>-33.12328077541665</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.647703007005345</v>
+        <v>-1.527154764687823</v>
       </c>
       <c r="G32" t="n">
-        <v>2.503459832561666</v>
+        <v>2.527415966209549</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-6.370462225394824</v>
       </c>
       <c r="E33" t="n">
-        <v>-32.33274792106398</v>
+        <v>-32.37082350654351</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.794040760545843</v>
+        <v>-1.656327215118583</v>
       </c>
       <c r="G33" t="n">
-        <v>3.258845616548094</v>
+        <v>3.253086366458868</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-5.6759232356942</v>
       </c>
       <c r="E34" t="n">
-        <v>-32.1718433715635</v>
+        <v>-32.22074077374295</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.039967583965399</v>
+        <v>-1.905329223857428</v>
       </c>
       <c r="G34" t="n">
-        <v>3.848621181924645</v>
+        <v>3.86717007397772</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-4.894826627930944</v>
       </c>
       <c r="E35" t="n">
-        <v>-31.6761029642652</v>
+        <v>-31.71174626882844</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.222058644723646</v>
+        <v>-2.07529065857886</v>
       </c>
       <c r="G35" t="n">
-        <v>4.284930821748736</v>
+        <v>4.289951831801057</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-4.074335659176723</v>
       </c>
       <c r="E36" t="n">
-        <v>-32.00868498989738</v>
+        <v>-32.02949504762641</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.244953863881409</v>
+        <v>-2.107166983351145</v>
       </c>
       <c r="G36" t="n">
-        <v>4.605820787458698</v>
+        <v>4.625670155338373</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-3.263675712353694</v>
       </c>
       <c r="E37" t="n">
-        <v>-31.181993040757</v>
+        <v>-31.20856968208555</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.201529704889471</v>
+        <v>-2.054003922680312</v>
       </c>
       <c r="G37" t="n">
-        <v>4.829893750183144</v>
+        <v>4.842243381528971</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-2.502759180066735</v>
       </c>
       <c r="E38" t="n">
-        <v>-30.57454860456342</v>
+        <v>-30.60200526712802</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.470263745343185</v>
+        <v>-2.337967219524466</v>
       </c>
       <c r="G38" t="n">
-        <v>5.156679858174606</v>
+        <v>5.17001706890755</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-1.827290427761373</v>
       </c>
       <c r="E39" t="n">
-        <v>-29.78697115486179</v>
+        <v>-29.80658829491529</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.494958119027972</v>
+        <v>-2.369408422685596</v>
       </c>
       <c r="G39" t="n">
-        <v>5.422793390947653</v>
+        <v>5.407275683152066</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-1.263911241023611</v>
       </c>
       <c r="E40" t="n">
-        <v>-29.50585081551075</v>
+        <v>-29.51045137097251</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.675074021011985</v>
+        <v>-2.537961823429356</v>
       </c>
       <c r="G40" t="n">
-        <v>5.293136928837069</v>
+        <v>5.276299189187414</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-0.8303975894688789</v>
       </c>
       <c r="E41" t="n">
-        <v>-29.00702055587255</v>
+        <v>-29.01888373103512</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.604330091647726</v>
+        <v>-2.467203227044496</v>
       </c>
       <c r="G41" t="n">
-        <v>5.741116628052485</v>
+        <v>5.711264352123103</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-0.5355638733039297</v>
       </c>
       <c r="E42" t="n">
-        <v>-28.40381244412915</v>
+        <v>-28.40822232832311</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.60684304117732</v>
+        <v>-2.456877644541571</v>
       </c>
       <c r="G42" t="n">
-        <v>5.603359081563424</v>
+        <v>5.578273587329282</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-0.3755728281025201</v>
       </c>
       <c r="E43" t="n">
-        <v>-27.77680464695761</v>
+        <v>-27.79184323208024</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.645715534776161</v>
+        <v>-2.500751592165266</v>
       </c>
       <c r="G43" t="n">
-        <v>5.95417954731264</v>
+        <v>5.918294236909484</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-0.3401679684790489</v>
       </c>
       <c r="E44" t="n">
-        <v>-27.08306190605268</v>
+        <v>-27.08878693309384</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.728549978122301</v>
+        <v>-2.605141666787634</v>
       </c>
       <c r="G44" t="n">
-        <v>5.713449738192614</v>
+        <v>5.699902300164393</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-0.4079711414481635</v>
       </c>
       <c r="E45" t="n">
-        <v>-26.23859108344076</v>
+        <v>-26.27787914262329</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.59410228928214</v>
+        <v>-2.476619454270174</v>
       </c>
       <c r="G45" t="n">
-        <v>5.609582787305006</v>
+        <v>5.6035546418381</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.5554088790033459</v>
       </c>
       <c r="E46" t="n">
-        <v>-25.62945505087123</v>
+        <v>-25.66458256521001</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.493481638954163</v>
+        <v>-2.36509142962211</v>
       </c>
       <c r="G46" t="n">
-        <v>5.569478263975703</v>
+        <v>5.557910873728582</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.7506529872211197</v>
       </c>
       <c r="E47" t="n">
-        <v>-24.80566228280292</v>
+        <v>-24.84325385660263</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.501196491790155</v>
+        <v>-2.353876047869407</v>
       </c>
       <c r="G47" t="n">
-        <v>5.564051466353427</v>
+        <v>5.540413118151894</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.9651354057706975</v>
       </c>
       <c r="E48" t="n">
-        <v>-24.45842057008029</v>
+        <v>-24.50774087135373</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.454051798572495</v>
+        <v>-2.314636878755548</v>
       </c>
       <c r="G48" t="n">
-        <v>5.40986685679153</v>
+        <v>5.390853509086099</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-1.16983920718723</v>
       </c>
       <c r="E49" t="n">
-        <v>-23.43377273289852</v>
+        <v>-23.48253079838226</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.426780918268843</v>
+        <v>-2.297007119993452</v>
       </c>
       <c r="G49" t="n">
-        <v>5.149776580478522</v>
+        <v>5.143919550251958</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-1.343007004581254</v>
       </c>
       <c r="E50" t="n">
-        <v>-23.05086571508174</v>
+        <v>-23.10790086919117</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.272151409082057</v>
+        <v>-2.154443679754213</v>
       </c>
       <c r="G50" t="n">
-        <v>4.999884518945777</v>
+        <v>4.980372492539919</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-1.467935416597554</v>
       </c>
       <c r="E51" t="n">
-        <v>-22.67356638814131</v>
+        <v>-22.75319853198963</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.047266871217703</v>
+        <v>-1.913117411796424</v>
       </c>
       <c r="G51" t="n">
-        <v>4.872946344653197</v>
+        <v>4.868516904431772</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-1.536076617498101</v>
       </c>
       <c r="E52" t="n">
-        <v>-21.79125220787604</v>
+        <v>-21.85498041238628</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.876224965978684</v>
+        <v>-1.733788639917984</v>
       </c>
       <c r="G52" t="n">
-        <v>4.749562478352864</v>
+        <v>4.74955270033913</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-1.546237429558451</v>
       </c>
       <c r="E53" t="n">
-        <v>-20.79569396155242</v>
+        <v>-20.86864772202052</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.996245195554579</v>
+        <v>-1.854674223709323</v>
       </c>
       <c r="G53" t="n">
-        <v>4.562621522782638</v>
+        <v>4.552398609423919</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-1.50337185438387</v>
       </c>
       <c r="E54" t="n">
-        <v>-20.17711725672287</v>
+        <v>-20.27732234146716</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.670989346712461</v>
+        <v>-1.524157803478404</v>
       </c>
       <c r="G54" t="n">
-        <v>4.703385808494853</v>
+        <v>4.710528647527416</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-1.41888071862744</v>
       </c>
       <c r="E55" t="n">
-        <v>-19.49301319285606</v>
+        <v>-19.57905971371376</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.735270008998659</v>
+        <v>-1.591098085500204</v>
       </c>
       <c r="G55" t="n">
-        <v>4.212509963029125</v>
+        <v>4.227792998495101</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-1.307173374923991</v>
       </c>
       <c r="E56" t="n">
-        <v>-19.08801275300769</v>
+        <v>-19.20679606384626</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.869077237939254</v>
+        <v>-1.731182799257918</v>
       </c>
       <c r="G56" t="n">
-        <v>4.29912360868339</v>
+        <v>4.329151888859982</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-1.186698346348095</v>
       </c>
       <c r="E57" t="n">
-        <v>-18.65384449819131</v>
+        <v>-18.78199514618689</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.841253899859641</v>
+        <v>-1.696793524956038</v>
       </c>
       <c r="G57" t="n">
-        <v>3.831969224535932</v>
+        <v>3.882863786020517</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-1.074213253755193</v>
       </c>
       <c r="E58" t="n">
-        <v>-17.63578704226614</v>
+        <v>-17.73713615461729</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.18977164337454</v>
+        <v>-2.055886190324074</v>
       </c>
       <c r="G58" t="n">
-        <v>3.456689057431541</v>
+        <v>3.501604363517889</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.9867573800439524</v>
       </c>
       <c r="E59" t="n">
-        <v>-17.2062975670214</v>
+        <v>-17.3251199899149</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.221853306435236</v>
+        <v>-2.08882342958648</v>
       </c>
       <c r="G59" t="n">
-        <v>3.435871666192217</v>
+        <v>3.500768343343646</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.9362476638219089</v>
       </c>
       <c r="E60" t="n">
-        <v>-16.54323089970293</v>
+        <v>-16.64047813529273</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.36678791500493</v>
+        <v>-2.237195009983615</v>
       </c>
       <c r="G60" t="n">
-        <v>3.014732614676164</v>
+        <v>3.076133651917748</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.9326812006669528</v>
       </c>
       <c r="E61" t="n">
-        <v>-15.80395928234985</v>
+        <v>-15.91203566814987</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.171330309472537</v>
+        <v>-2.043673451170521</v>
       </c>
       <c r="G61" t="n">
-        <v>2.52928356683271</v>
+        <v>2.590342373593611</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.9794226145434353</v>
       </c>
       <c r="E62" t="n">
-        <v>-15.73134775236243</v>
+        <v>-15.79812669715762</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.535624878146971</v>
+        <v>-2.412255678867238</v>
       </c>
       <c r="G62" t="n">
-        <v>2.00620872214148</v>
+        <v>2.080917636074808</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-1.078110953024518</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.13961658423911</v>
+        <v>-15.22992631908477</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.714112740844301</v>
+        <v>-2.593774725822057</v>
       </c>
       <c r="G63" t="n">
-        <v>1.602093192536025</v>
+        <v>1.661822189429125</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-1.224529042642702</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.024416915434</v>
+        <v>-15.09909649532612</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.974677250823401</v>
+        <v>-2.859291799757341</v>
       </c>
       <c r="G64" t="n">
-        <v>1.212620238496979</v>
+        <v>1.284322413207154</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-1.412957874907336</v>
       </c>
       <c r="E65" t="n">
-        <v>-14.70518432305192</v>
+        <v>-14.79293710730617</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.992913246436993</v>
+        <v>-2.895475339579378</v>
       </c>
       <c r="G65" t="n">
-        <v>1.155873535792697</v>
+        <v>1.234214981828142</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-1.632978209760769</v>
       </c>
       <c r="E66" t="n">
-        <v>-14.58238224856875</v>
+        <v>-14.67008125374747</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.885384429406066</v>
+        <v>-2.786734048845456</v>
       </c>
       <c r="G66" t="n">
-        <v>0.6300901812971961</v>
+        <v>0.6884747013018944</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-1.873247773122251</v>
       </c>
       <c r="E67" t="n">
-        <v>-14.206564290709</v>
+        <v>-14.28070119083889</v>
       </c>
       <c r="F67" t="n">
-        <v>-3.157447883536149</v>
+        <v>-3.056201440329207</v>
       </c>
       <c r="G67" t="n">
-        <v>0.6256656300826381</v>
+        <v>0.6733676700831273</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-2.121043672113692</v>
       </c>
       <c r="E68" t="n">
-        <v>-14.28543374948607</v>
+        <v>-14.36295873137474</v>
       </c>
       <c r="F68" t="n">
-        <v>-3.434874578199238</v>
+        <v>-3.337113996888406</v>
       </c>
       <c r="G68" t="n">
-        <v>0.6378637022155909</v>
+        <v>0.6731232197397815</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-2.364136713416785</v>
       </c>
       <c r="E69" t="n">
-        <v>-14.18157168760533</v>
+        <v>-14.27594418715739</v>
       </c>
       <c r="F69" t="n">
-        <v>-3.361427028037574</v>
+        <v>-3.24365574162046</v>
       </c>
       <c r="G69" t="n">
-        <v>0.8484772290354199</v>
+        <v>0.8896866679166461</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-2.593131721444842</v>
       </c>
       <c r="E70" t="n">
-        <v>-14.31771586182831</v>
+        <v>-14.37688262293171</v>
       </c>
       <c r="F70" t="n">
-        <v>-3.706366018525892</v>
+        <v>-3.603305753771324</v>
       </c>
       <c r="G70" t="n">
-        <v>0.8404739247942802</v>
+        <v>0.8653100796782081</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-2.799519084684911</v>
       </c>
       <c r="E71" t="n">
-        <v>-14.19286040446103</v>
+        <v>-14.29182857046799</v>
       </c>
       <c r="F71" t="n">
-        <v>-3.65060200620186</v>
+        <v>-3.555613491784569</v>
       </c>
       <c r="G71" t="n">
-        <v>0.9328517095446381</v>
+        <v>0.9442822075994852</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-2.980296733235217</v>
       </c>
       <c r="E72" t="n">
-        <v>-14.15231587051371</v>
+        <v>-14.23211424059549</v>
       </c>
       <c r="F72" t="n">
-        <v>-3.87534965187394</v>
+        <v>-3.778224641455807</v>
       </c>
       <c r="G72" t="n">
-        <v>0.8087687152623367</v>
+        <v>0.8045788363773906</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-3.132481419385521</v>
       </c>
       <c r="E73" t="n">
-        <v>-14.37036068777125</v>
+        <v>-14.42886743294762</v>
       </c>
       <c r="F73" t="n">
-        <v>-3.757744591690301</v>
+        <v>-3.674020349094382</v>
       </c>
       <c r="G73" t="n">
-        <v>1.217347908137286</v>
+        <v>1.196638075049034</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-3.260114060330342</v>
       </c>
       <c r="E74" t="n">
-        <v>-14.94929732492385</v>
+        <v>-15.00062211901272</v>
       </c>
       <c r="F74" t="n">
-        <v>-3.839923908116274</v>
+        <v>-3.754498291130669</v>
       </c>
       <c r="G74" t="n">
-        <v>1.569473738719968</v>
+        <v>1.551516416497789</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-3.36500309943841</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.04179244583901</v>
+        <v>-15.10472374222994</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.964388244934195</v>
+        <v>-3.880932897715957</v>
       </c>
       <c r="G75" t="n">
-        <v>1.817727729408175</v>
+        <v>1.780380605951812</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-3.45511357798419</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.4236483271794</v>
+        <v>-15.4564535632564</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.834325995253657</v>
+        <v>-3.7577299246697</v>
       </c>
       <c r="G76" t="n">
-        <v>2.081235421521157</v>
+        <v>2.031362662471758</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-3.534302171048639</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.99867864784534</v>
+        <v>-16.00568459468563</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.985293638297123</v>
+        <v>-3.924630841092442</v>
       </c>
       <c r="G77" t="n">
-        <v>2.482124206594449</v>
+        <v>2.44813094184879</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-3.610561851380313</v>
       </c>
       <c r="E78" t="n">
-        <v>-16.86495199658027</v>
+        <v>-16.8735175366111</v>
       </c>
       <c r="F78" t="n">
-        <v>-4.330164182689304</v>
+        <v>-4.265018166187662</v>
       </c>
       <c r="G78" t="n">
-        <v>2.82404667984588</v>
+        <v>2.787071120911402</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.686500607143939</v>
       </c>
       <c r="E79" t="n">
-        <v>-17.54947162603076</v>
+        <v>-17.55292815388567</v>
       </c>
       <c r="F79" t="n">
-        <v>-4.0649306711523</v>
+        <v>-3.983787824182113</v>
       </c>
       <c r="G79" t="n">
-        <v>3.033853520532668</v>
+        <v>3.011701430418676</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-3.767113500392589</v>
       </c>
       <c r="E80" t="n">
-        <v>-18.32820730681357</v>
+        <v>-18.32629081612174</v>
       </c>
       <c r="F80" t="n">
-        <v>-4.168870957142913</v>
+        <v>-4.106120554006059</v>
       </c>
       <c r="G80" t="n">
-        <v>3.212468497408539</v>
+        <v>3.181858425414784</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-3.851250498288919</v>
       </c>
       <c r="E81" t="n">
-        <v>-19.4779648297197</v>
+        <v>-19.47182912610172</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.989923527800092</v>
+        <v>-3.913400792319139</v>
       </c>
       <c r="G81" t="n">
-        <v>3.594334156762665</v>
+        <v>3.574460343848655</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-3.939719086671558</v>
       </c>
       <c r="E82" t="n">
-        <v>-20.5407322534428</v>
+        <v>-20.54908756617836</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.940789008787597</v>
+        <v>-3.87725147554517</v>
       </c>
       <c r="G82" t="n">
-        <v>3.923946110723203</v>
+        <v>3.883274462597338</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-4.027892456933784</v>
       </c>
       <c r="E83" t="n">
-        <v>-21.609263816262</v>
+        <v>-21.61049095698559</v>
       </c>
       <c r="F83" t="n">
-        <v>-3.779226887863525</v>
+        <v>-3.72647939277638</v>
       </c>
       <c r="G83" t="n">
-        <v>4.281039172282672</v>
+        <v>4.239360388742221</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-4.114492388252286</v>
       </c>
       <c r="E84" t="n">
-        <v>-23.05909391363876</v>
+        <v>-23.06086373412458</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.927896697679542</v>
+        <v>-3.85796434345519</v>
       </c>
       <c r="G84" t="n">
-        <v>4.192875711451594</v>
+        <v>4.149026208862233</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-4.195259198014883</v>
       </c>
       <c r="E85" t="n">
-        <v>-23.977484075575</v>
+        <v>-23.97045368370037</v>
       </c>
       <c r="F85" t="n">
-        <v>-3.830747242227075</v>
+        <v>-3.766896812545165</v>
       </c>
       <c r="G85" t="n">
-        <v>4.462719556464098</v>
+        <v>4.408705808598421</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-4.269635177159381</v>
       </c>
       <c r="E86" t="n">
-        <v>-25.75061930805398</v>
+        <v>-25.74823836170979</v>
       </c>
       <c r="F86" t="n">
-        <v>-3.863234692857724</v>
+        <v>-3.81096143143667</v>
       </c>
       <c r="G86" t="n">
-        <v>4.902930623767986</v>
+        <v>4.879292275566453</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-4.334707996778015</v>
       </c>
       <c r="E87" t="n">
-        <v>-26.86241613714194</v>
+        <v>-26.82807330840529</v>
       </c>
       <c r="F87" t="n">
-        <v>-3.682742337344958</v>
+        <v>-3.61679941272401</v>
       </c>
       <c r="G87" t="n">
-        <v>5.245063324314694</v>
+        <v>5.209241571000809</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-4.391080182052215</v>
       </c>
       <c r="E88" t="n">
-        <v>-28.46222385367162</v>
+        <v>-28.42302868561956</v>
       </c>
       <c r="F88" t="n">
-        <v>-3.517445015174564</v>
+        <v>-3.458121805851418</v>
       </c>
       <c r="G88" t="n">
-        <v>5.406395661916021</v>
+        <v>5.370275679183253</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-4.438838068642694</v>
       </c>
       <c r="E89" t="n">
-        <v>-29.98618107316454</v>
+        <v>-29.92199574651225</v>
       </c>
       <c r="F89" t="n">
-        <v>-3.633759377545338</v>
+        <v>-3.58437551918263</v>
       </c>
       <c r="G89" t="n">
-        <v>5.633240691534008</v>
+        <v>5.607588072503304</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-4.481037277568016</v>
       </c>
       <c r="E90" t="n">
-        <v>-31.81265292605813</v>
+        <v>-31.78950592304672</v>
       </c>
       <c r="F90" t="n">
-        <v>-3.710301669053758</v>
+        <v>-3.659416885582907</v>
       </c>
       <c r="G90" t="n">
-        <v>5.603060852144542</v>
+        <v>5.56103494911654</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-4.521184630862702</v>
       </c>
       <c r="E91" t="n">
-        <v>-33.61152144618111</v>
+        <v>-33.5843116784633</v>
       </c>
       <c r="F91" t="n">
-        <v>-3.936046672126689</v>
+        <v>-3.853236673814883</v>
       </c>
       <c r="G91" t="n">
-        <v>5.315421022136467</v>
+        <v>5.291846231024204</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-4.563468072821834</v>
       </c>
       <c r="E92" t="n">
-        <v>-35.49991257104418</v>
+        <v>-35.45454014281578</v>
       </c>
       <c r="F92" t="n">
-        <v>-3.758795728166687</v>
+        <v>-3.667737975270397</v>
       </c>
       <c r="G92" t="n">
-        <v>4.92379690507598</v>
+        <v>4.910806813830586</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-4.614685000715835</v>
       </c>
       <c r="E93" t="n">
-        <v>-37.7266474161321</v>
+        <v>-37.68909495438732</v>
       </c>
       <c r="F93" t="n">
-        <v>-3.871839344943495</v>
+        <v>-3.785563040763047</v>
       </c>
       <c r="G93" t="n">
-        <v>4.834293856363368</v>
+        <v>4.838126837747029</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-4.679981449245729</v>
       </c>
       <c r="E94" t="n">
-        <v>-39.86429722259452</v>
+        <v>-39.8395344028136</v>
       </c>
       <c r="F94" t="n">
-        <v>-4.112877161496136</v>
+        <v>-3.992680927673032</v>
       </c>
       <c r="G94" t="n">
-        <v>4.6675591661741</v>
+        <v>4.703356474453651</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-4.767216371257779</v>
       </c>
       <c r="E95" t="n">
-        <v>-42.27529873649646</v>
+        <v>-42.25919190337341</v>
       </c>
       <c r="F95" t="n">
-        <v>-4.002419829351926</v>
+        <v>-3.874616300843903</v>
       </c>
       <c r="G95" t="n">
-        <v>4.448477879460774</v>
+        <v>4.479943527656239</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-4.885103817594718</v>
       </c>
       <c r="E96" t="n">
-        <v>-44.50763882795729</v>
+        <v>-44.46045746718814</v>
       </c>
       <c r="F96" t="n">
-        <v>-4.146787313125058</v>
+        <v>-4.00328518356737</v>
       </c>
       <c r="G96" t="n">
-        <v>3.822137431726567</v>
+        <v>3.903035828353408</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-5.036897760107077</v>
       </c>
       <c r="E97" t="n">
-        <v>-46.66872897784314</v>
+        <v>-46.64351881393389</v>
       </c>
       <c r="F97" t="n">
-        <v>-4.127187284595595</v>
+        <v>-3.981969113627621</v>
       </c>
       <c r="G97" t="n">
-        <v>3.378196052183222</v>
+        <v>3.456107265614378</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-5.238335934227438</v>
       </c>
       <c r="E98" t="n">
-        <v>-48.81087667062313</v>
+        <v>-48.78360334581604</v>
       </c>
       <c r="F98" t="n">
-        <v>-4.199735257493747</v>
+        <v>-4.043184368608263</v>
       </c>
       <c r="G98" t="n">
-        <v>3.007775557904544</v>
+        <v>3.108870441898611</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-5.479897357465201</v>
       </c>
       <c r="E99" t="n">
-        <v>-51.00362558447569</v>
+        <v>-50.97940788896042</v>
       </c>
       <c r="F99" t="n">
-        <v>-4.157890247719822</v>
+        <v>-3.992764040789769</v>
       </c>
       <c r="G99" t="n">
-        <v>2.667261118630784</v>
+        <v>2.783624371070227</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-5.790082360787969</v>
       </c>
       <c r="E100" t="n">
-        <v>-53.73364457445756</v>
+        <v>-53.70346717957153</v>
       </c>
       <c r="F100" t="n">
-        <v>-4.323876919858451</v>
+        <v>-4.160632980572161</v>
       </c>
       <c r="G100" t="n">
-        <v>2.163263178734256</v>
+        <v>2.290167129978768</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-6.126340500098377</v>
       </c>
       <c r="E101" t="n">
-        <v>-56.06602841343607</v>
+        <v>-56.03814762952577</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.366689952992025</v>
+        <v>-4.200683724825928</v>
       </c>
       <c r="G101" t="n">
-        <v>1.756536919461868</v>
+        <v>1.872391715187151</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-6.560083017304514</v>
       </c>
       <c r="E102" t="n">
-        <v>-58.17086381693362</v>
+        <v>-58.12787600180455</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.184095324526486</v>
+        <v>-4.030311613527676</v>
       </c>
       <c r="G102" t="n">
-        <v>1.136346842366239</v>
+        <v>1.283701509335055</v>
       </c>
     </row>
   </sheetData>
